--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1905360.266349264</v>
+        <v>1850408.377065169</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013178</v>
+        <v>408938.3872013175</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7320092.734230682</v>
+        <v>7320092.734230684</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.64791291625193</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C11" t="n">
         <v>350.2054973811788</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>318.7967877515123</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1454,16 +1454,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>12.93814792283806</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -1514,10 +1514,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>10.14735338562947</v>
       </c>
     </row>
     <row r="13">
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>7.226885210985838</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58429473553585</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.14329602706151</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>149.8100015377238</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
-        <v>140.2491341557715</v>
+        <v>102.1627198992155</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>172.3096664410762</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>115.1070645654644</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>73.35340349906473</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>152.3549420496104</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>13.72390842408545</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
@@ -1912,7 +1912,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
-        <v>382.2855674184499</v>
+        <v>296.8745173614296</v>
       </c>
     </row>
     <row r="18">
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>164.1023207247648</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>147.9743432409925</v>
@@ -1943,7 +1943,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>70.06006335089783</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C19" t="n">
-        <v>76.53519509961436</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>119.9206716353532</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>165.632910508473</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>42.69932332884362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,22 +2165,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>52.39162821209172</v>
+        <v>47.66281997264387</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -2225,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>131.0804113283488</v>
       </c>
       <c r="W22" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>7.226885210985831</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>50.84466373590684</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>75.39509184192022</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -2396,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>60.9643079620781</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S24" t="n">
-        <v>177.283526739121</v>
+        <v>83.04938031386283</v>
       </c>
       <c r="T24" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>13.17754076652749</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>73.3534034990646</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>169.8679212068082</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>187.406044637005</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>43.90160672116229</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>119.7971290311716</v>
       </c>
       <c r="U27" t="n">
         <v>237.1773944157285</v>
@@ -2699,10 +2699,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>75.61813689207861</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>80.39631948615272</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>349.5935018211468</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>161.5225488362294</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.329915919761908</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>177.283526739121</v>
+        <v>76.12292534208186</v>
       </c>
       <c r="T30" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>131.0804113283488</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>52.42857711587125</v>
       </c>
     </row>
     <row r="32">
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>226.9496388340157</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>346.8826392225223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>1.238714275296014</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>147.9743432409925</v>
@@ -3128,7 +3128,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T33" t="n">
-        <v>211.8662302997449</v>
+        <v>131.5991579622693</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>223.3842861340256</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>73.3534034990646</v>
+        <v>13.42805983116376</v>
       </c>
       <c r="S34" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>417.3985592667085</v>
+        <v>73.43304209459774</v>
       </c>
       <c r="H35" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I35" t="n">
-        <v>35.79872260099865</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>39.19605052942161</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>14.39858468753936</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>158.6107100818745</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.14329602706151</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>2.474840865017136</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>30.30451780377645</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>302.1181162282836</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3590,19 +3590,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>118.2964226714636</v>
+        <v>103.7954743977697</v>
       </c>
       <c r="I39" t="n">
-        <v>18.93291146087411</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S39" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -3647,10 +3647,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>131.0804113283488</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>152.3549420496105</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>277.8152915385621</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>194.8695687967445</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="42">
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79.99132866338556</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>49.71102278375294</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T42" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -3887,7 +3887,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>129.482578516696</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>119.9206716353532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>265.8030354926772</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>160.9639132334698</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.329915919761683</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>86.89603752886883</v>
       </c>
       <c r="S45" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>211.8662302997449</v>
@@ -4118,13 +4118,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>98.30349989832403</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>8.916258666857136</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V46" t="n">
-        <v>8.916258666857136</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>575.4404706159872</v>
+        <v>1085.305761131543</v>
       </c>
       <c r="C11" t="n">
-        <v>221.6975439683318</v>
+        <v>731.5628344838881</v>
       </c>
       <c r="D11" t="n">
-        <v>221.6975439683318</v>
+        <v>731.5628344838881</v>
       </c>
       <c r="E11" t="n">
-        <v>221.6975439683318</v>
+        <v>356.3316101792051</v>
       </c>
       <c r="F11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I11" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887602962</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K11" t="n">
-        <v>253.8975067193746</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L11" t="n">
-        <v>525.5283691389716</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M11" t="n">
-        <v>856.6460009292775</v>
+        <v>856.6460009292787</v>
       </c>
       <c r="N11" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O11" t="n">
         <v>1460.632785841149</v>
@@ -5065,28 +5065,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R11" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S11" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T11" t="n">
-        <v>1195.201146295158</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U11" t="n">
-        <v>942.6401640759913</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V11" t="n">
-        <v>618.5191705313932</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="W11" t="n">
-        <v>618.5191705313932</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="X11" t="n">
-        <v>618.5191705313932</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="Y11" t="n">
-        <v>618.5191705313932</v>
+        <v>1463.171660503092</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>571.1390835247303</v>
+        <v>707.1868808595831</v>
       </c>
       <c r="C12" t="n">
-        <v>381.726809257694</v>
+        <v>517.7746065925468</v>
       </c>
       <c r="D12" t="n">
-        <v>220.9466930187257</v>
+        <v>517.7746065925468</v>
       </c>
       <c r="E12" t="n">
-        <v>47.38348914014017</v>
+        <v>344.2114027139612</v>
       </c>
       <c r="F12" t="n">
-        <v>34.31465285444516</v>
+        <v>183.7836864312053</v>
       </c>
       <c r="G12" t="n">
         <v>34.31465285444516</v>
@@ -5126,16 +5126,16 @@
         <v>215.5091216889814</v>
       </c>
       <c r="L12" t="n">
-        <v>498.4142537443596</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M12" t="n">
-        <v>873.3058632974212</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N12" t="n">
-        <v>1276.539627797432</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O12" t="n">
-        <v>1589.672661844326</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P12" t="n">
         <v>1715.732642722258</v>
@@ -5144,28 +5144,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R12" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S12" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T12" t="n">
-        <v>1501.726349490193</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="U12" t="n">
-        <v>1262.15322381774</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="V12" t="n">
-        <v>1019.073505721374</v>
+        <v>1384.879149344207</v>
       </c>
       <c r="W12" t="n">
-        <v>749.6749364516653</v>
+        <v>1115.480580074498</v>
       </c>
       <c r="X12" t="n">
-        <v>749.6749364516653</v>
+        <v>895.9725856911944</v>
       </c>
       <c r="Y12" t="n">
-        <v>749.6749364516653</v>
+        <v>885.7227337865181</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109.6523243044814</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="C13" t="n">
-        <v>109.6523243044814</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="D13" t="n">
-        <v>109.6523243044814</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="E13" t="n">
-        <v>109.6523243044814</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="F13" t="n">
-        <v>109.6523243044814</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="G13" t="n">
-        <v>109.6523243044814</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="H13" t="n">
-        <v>109.6523243044814</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="I13" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J13" t="n">
         <v>34.31465285444516</v>
@@ -5220,31 +5220,31 @@
         <v>334.8576753800221</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.9755581809701</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R13" t="n">
-        <v>109.6523243044814</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S13" t="n">
-        <v>109.6523243044814</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T13" t="n">
-        <v>109.6523243044814</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U13" t="n">
-        <v>109.6523243044814</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V13" t="n">
-        <v>109.6523243044814</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W13" t="n">
-        <v>109.6523243044814</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="X13" t="n">
-        <v>109.6523243044814</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="Y13" t="n">
-        <v>109.6523243044814</v>
+        <v>41.61453690594601</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1715.732642722258</v>
+        <v>814.3276168811599</v>
       </c>
       <c r="C14" t="n">
-        <v>1715.732642722258</v>
+        <v>814.3276168811599</v>
       </c>
       <c r="D14" t="n">
-        <v>1715.732642722258</v>
+        <v>473.1436172425464</v>
       </c>
       <c r="E14" t="n">
-        <v>1340.501418417575</v>
+        <v>473.1436172425464</v>
       </c>
       <c r="F14" t="n">
-        <v>933.2294490842278</v>
+        <v>473.1436172425464</v>
       </c>
       <c r="G14" t="n">
-        <v>511.6147427542192</v>
+        <v>473.1436172425464</v>
       </c>
       <c r="H14" t="n">
-        <v>175.9804449309821</v>
+        <v>137.5093194193093</v>
       </c>
       <c r="I14" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K14" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L14" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M14" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N14" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O14" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P14" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q14" t="n">
         <v>1715.732642722258</v>
@@ -5305,25 +5305,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S14" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T14" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="U14" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="V14" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="W14" t="n">
-        <v>1715.732642722258</v>
+        <v>1177.744500007126</v>
       </c>
       <c r="X14" t="n">
-        <v>1715.732642722258</v>
+        <v>814.3276168811599</v>
       </c>
       <c r="Y14" t="n">
-        <v>1715.732642722258</v>
+        <v>814.3276168811599</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>339.9966893088193</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="C15" t="n">
-        <v>150.584415041783</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="D15" t="n">
-        <v>34.31465285444516</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="E15" t="n">
-        <v>34.31465285444516</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="F15" t="n">
-        <v>34.31465285444516</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G15" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H15" t="n">
         <v>34.31465285444516</v>
@@ -5357,52 +5357,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J15" t="n">
-        <v>54.4093011102587</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K15" t="n">
         <v>215.5091216889814</v>
       </c>
       <c r="L15" t="n">
-        <v>304.6946924676432</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M15" t="n">
-        <v>679.5863020207048</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N15" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O15" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P15" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q15" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R15" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S15" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T15" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="U15" t="n">
-        <v>1476.159517049805</v>
+        <v>1209.311472334664</v>
       </c>
       <c r="V15" t="n">
-        <v>1233.079798953439</v>
+        <v>966.2317542382982</v>
       </c>
       <c r="W15" t="n">
-        <v>963.6812296837303</v>
+        <v>696.8331849685895</v>
       </c>
       <c r="X15" t="n">
-        <v>744.1732353004267</v>
+        <v>477.3251905852859</v>
       </c>
       <c r="Y15" t="n">
-        <v>518.5325422357544</v>
+        <v>477.3251905852859</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108.4089998231974</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="C16" t="n">
-        <v>108.4089998231974</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="D16" t="n">
-        <v>108.4089998231974</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E16" t="n">
-        <v>108.4089998231974</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F16" t="n">
-        <v>108.4089998231974</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G16" t="n">
-        <v>108.4089998231974</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H16" t="n">
         <v>34.31465285444516</v>
@@ -5448,40 +5448,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N16" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O16" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P16" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q16" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R16" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S16" t="n">
-        <v>108.4089998231974</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T16" t="n">
-        <v>108.4089998231974</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U16" t="n">
-        <v>108.4089998231974</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V16" t="n">
-        <v>108.4089998231974</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W16" t="n">
-        <v>108.4089998231974</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="X16" t="n">
-        <v>108.4089998231974</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="Y16" t="n">
-        <v>108.4089998231974</v>
+        <v>180.9637945218297</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.31465285444516</v>
+        <v>711.1329503162957</v>
       </c>
       <c r="C17" t="n">
-        <v>34.31465285444516</v>
+        <v>711.1329503162957</v>
       </c>
       <c r="D17" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="E17" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="F17" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G17" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H17" t="n">
         <v>34.31465285444516</v>
@@ -5515,25 +5515,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887602993</v>
       </c>
       <c r="K17" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L17" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M17" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292776</v>
       </c>
       <c r="N17" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O17" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P17" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q17" t="n">
         <v>1715.732642722258</v>
@@ -5545,22 +5545,22 @@
         <v>1715.732642722258</v>
       </c>
       <c r="T17" t="n">
-        <v>1701.870108960556</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U17" t="n">
-        <v>1449.30912674139</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V17" t="n">
-        <v>1125.188133196792</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W17" t="n">
-        <v>783.8785737768251</v>
+        <v>1374.423083302291</v>
       </c>
       <c r="X17" t="n">
-        <v>420.4616906508592</v>
+        <v>1011.006200176326</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.31465285444516</v>
+        <v>711.1329503162957</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1069.118384851047</v>
+        <v>476.8382263415723</v>
       </c>
       <c r="C18" t="n">
-        <v>879.7061105840106</v>
+        <v>476.8382263415723</v>
       </c>
       <c r="D18" t="n">
-        <v>718.9259943450423</v>
+        <v>476.8382263415723</v>
       </c>
       <c r="E18" t="n">
-        <v>545.3627904664568</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="F18" t="n">
-        <v>384.9350741837009</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G18" t="n">
-        <v>235.4660406069408</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I18" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J18" t="n">
-        <v>54.40930111025869</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K18" t="n">
         <v>215.5091216889814</v>
       </c>
       <c r="L18" t="n">
-        <v>498.4142537443596</v>
+        <v>498.4142537443597</v>
       </c>
       <c r="M18" t="n">
-        <v>873.3058632974212</v>
+        <v>873.3058632974213</v>
       </c>
       <c r="N18" t="n">
-        <v>1173.359244302914</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O18" t="n">
         <v>1486.492278349808</v>
@@ -5618,28 +5618,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R18" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S18" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T18" t="n">
-        <v>1234.878304775052</v>
+        <v>1501.726349490192</v>
       </c>
       <c r="U18" t="n">
-        <v>1234.878304775052</v>
+        <v>1262.153223817739</v>
       </c>
       <c r="V18" t="n">
-        <v>1234.878304775052</v>
+        <v>1191.385483059257</v>
       </c>
       <c r="W18" t="n">
-        <v>1234.878304775052</v>
+        <v>921.9869137895482</v>
       </c>
       <c r="X18" t="n">
-        <v>1234.878304775052</v>
+        <v>702.4789194062446</v>
       </c>
       <c r="Y18" t="n">
-        <v>1234.878304775052</v>
+        <v>476.8382263415723</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.6229307328435</v>
+        <v>155.446644405307</v>
       </c>
       <c r="C19" t="n">
-        <v>34.31465285444516</v>
+        <v>155.446644405307</v>
       </c>
       <c r="D19" t="n">
-        <v>34.31465285444516</v>
+        <v>155.446644405307</v>
       </c>
       <c r="E19" t="n">
-        <v>34.31465285444516</v>
+        <v>155.446644405307</v>
       </c>
       <c r="F19" t="n">
-        <v>34.31465285444516</v>
+        <v>155.446644405307</v>
       </c>
       <c r="G19" t="n">
-        <v>34.31465285444516</v>
+        <v>155.446644405307</v>
       </c>
       <c r="H19" t="n">
-        <v>34.31465285444516</v>
+        <v>155.446644405307</v>
       </c>
       <c r="I19" t="n">
         <v>34.31465285444516</v>
@@ -5685,40 +5685,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N19" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O19" t="n">
-        <v>315.4306320098956</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P19" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q19" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R19" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S19" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T19" t="n">
-        <v>111.6229307328435</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U19" t="n">
-        <v>111.6229307328435</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V19" t="n">
-        <v>111.6229307328435</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W19" t="n">
-        <v>111.6229307328435</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="X19" t="n">
-        <v>111.6229307328435</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Y19" t="n">
-        <v>111.6229307328435</v>
+        <v>334.8576753800222</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>388.0575795021006</v>
+        <v>1337.866743350709</v>
       </c>
       <c r="C20" t="n">
-        <v>34.31465285444518</v>
+        <v>984.123816703054</v>
       </c>
       <c r="D20" t="n">
-        <v>34.31465285444518</v>
+        <v>984.123816703054</v>
       </c>
       <c r="E20" t="n">
-        <v>34.31465285444518</v>
+        <v>608.892592398371</v>
       </c>
       <c r="F20" t="n">
-        <v>34.31465285444518</v>
+        <v>201.620623065024</v>
       </c>
       <c r="G20" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H20" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I20" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J20" t="n">
-        <v>79.2644088760303</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K20" t="n">
-        <v>253.8975067193755</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M20" t="n">
-        <v>856.6460009292788</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N20" t="n">
-        <v>1186.279026157784</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O20" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P20" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q20" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R20" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S20" t="n">
-        <v>1413.54859321015</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T20" t="n">
-        <v>1195.201146295158</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U20" t="n">
-        <v>1152.070516670063</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V20" t="n">
-        <v>1152.070516670063</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W20" t="n">
-        <v>1152.070516670063</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="X20" t="n">
-        <v>1152.070516670063</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Y20" t="n">
-        <v>765.9234788736494</v>
+        <v>1715.732642722258</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>787.6959013113635</v>
+        <v>582.12033953584</v>
       </c>
       <c r="C21" t="n">
-        <v>598.2836270443272</v>
+        <v>392.7080652688037</v>
       </c>
       <c r="D21" t="n">
-        <v>598.2836270443272</v>
+        <v>231.9279490298354</v>
       </c>
       <c r="E21" t="n">
-        <v>545.3627904664568</v>
+        <v>183.7836864312053</v>
       </c>
       <c r="F21" t="n">
-        <v>384.9350741837009</v>
+        <v>183.7836864312053</v>
       </c>
       <c r="G21" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I21" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J21" t="n">
-        <v>54.4093011102587</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K21" t="n">
         <v>215.5091216889814</v>
@@ -5846,37 +5846,37 @@
         <v>1276.539627797432</v>
       </c>
       <c r="O21" t="n">
-        <v>1486.492278349809</v>
+        <v>1589.672661844326</v>
       </c>
       <c r="P21" t="n">
-        <v>1715.732642722259</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q21" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R21" t="n">
         <v>1627.958867440573</v>
       </c>
       <c r="S21" t="n">
-        <v>1448.884598007118</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T21" t="n">
-        <v>1448.884598007118</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="U21" t="n">
-        <v>1209.311472334665</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="V21" t="n">
-        <v>966.2317542382987</v>
+        <v>1205.804879910751</v>
       </c>
       <c r="W21" t="n">
-        <v>966.2317542382987</v>
+        <v>1205.804879910751</v>
       </c>
       <c r="X21" t="n">
-        <v>966.2317542382987</v>
+        <v>986.2968855274476</v>
       </c>
       <c r="Y21" t="n">
-        <v>966.2317542382987</v>
+        <v>760.6561924627752</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1415.189620196682</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="C22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K22" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L22" t="n">
-        <v>1486.32208817288</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M22" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N22" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O22" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P22" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q22" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R22" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S22" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T22" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U22" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V22" t="n">
-        <v>1715.732642722259</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="W22" t="n">
-        <v>1422.489504248183</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="X22" t="n">
-        <v>1415.189620196682</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="Y22" t="n">
-        <v>1415.189620196682</v>
+        <v>202.4532194928011</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.31465285444516</v>
+        <v>914.5595747156865</v>
       </c>
       <c r="C23" t="n">
-        <v>34.31465285444516</v>
+        <v>914.5595747156865</v>
       </c>
       <c r="D23" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E23" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F23" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G23" t="n">
         <v>34.31465285444516</v>
@@ -5986,25 +5986,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="I23" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444541</v>
       </c>
       <c r="J23" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887603013</v>
       </c>
       <c r="K23" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193753</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389723</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292783</v>
+        <v>856.6460009292782</v>
       </c>
       <c r="N23" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O23" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P23" t="n">
         <v>1650.639799716936</v>
@@ -6013,28 +6013,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R23" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S23" t="n">
-        <v>1534.070518079133</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T23" t="n">
-        <v>1315.723071164142</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="U23" t="n">
-        <v>1063.162088944975</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="V23" t="n">
-        <v>739.0410954003776</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="W23" t="n">
-        <v>397.731535980411</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="X23" t="n">
-        <v>34.31465285444516</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.31465285444516</v>
+        <v>914.5595747156865</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>590.6657983073591</v>
+        <v>223.7269271214815</v>
       </c>
       <c r="C24" t="n">
-        <v>590.6657983073591</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D24" t="n">
-        <v>429.8856820683908</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E24" t="n">
-        <v>256.3224781898052</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F24" t="n">
-        <v>95.89476190704931</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G24" t="n">
         <v>34.31465285444516</v>
@@ -6068,52 +6068,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J24" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K24" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="L24" t="n">
-        <v>317.2197849098234</v>
+        <v>337.3144331656369</v>
       </c>
       <c r="M24" t="n">
-        <v>692.111394462885</v>
+        <v>712.2060427186984</v>
       </c>
       <c r="N24" t="n">
-        <v>1095.345158962896</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O24" t="n">
-        <v>1408.47819300979</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P24" t="n">
-        <v>1637.71855738224</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q24" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S24" t="n">
-        <v>1536.658373288803</v>
+        <v>1544.070604497277</v>
       </c>
       <c r="T24" t="n">
-        <v>1322.652080056737</v>
+        <v>1330.064311265211</v>
       </c>
       <c r="U24" t="n">
-        <v>1322.652080056737</v>
+        <v>1090.491185592758</v>
       </c>
       <c r="V24" t="n">
-        <v>1079.572361960371</v>
+        <v>847.4114674963926</v>
       </c>
       <c r="W24" t="n">
-        <v>810.1737926906627</v>
+        <v>847.4114674963926</v>
       </c>
       <c r="X24" t="n">
-        <v>590.6657983073591</v>
+        <v>627.9034731130889</v>
       </c>
       <c r="Y24" t="n">
-        <v>590.6657983073591</v>
+        <v>402.2627800484165</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C25" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D25" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E25" t="n">
-        <v>321.5470281411054</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F25" t="n">
-        <v>181.2168440820684</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G25" t="n">
-        <v>181.2168440820684</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H25" t="n">
-        <v>181.2168440820684</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I25" t="n">
         <v>34.31465285444516</v>
@@ -6174,25 +6174,25 @@
         <v>334.8576753800221</v>
       </c>
       <c r="S25" t="n">
-        <v>334.8576753800221</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="T25" t="n">
-        <v>334.8576753800221</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="U25" t="n">
-        <v>334.8576753800221</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="V25" t="n">
-        <v>334.8576753800221</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="W25" t="n">
-        <v>334.8576753800221</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="X25" t="n">
-        <v>334.8576753800221</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="Y25" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1329.585604925844</v>
+        <v>932.5630660962519</v>
       </c>
       <c r="C26" t="n">
-        <v>1158.001846131089</v>
+        <v>932.5630660962519</v>
       </c>
       <c r="D26" t="n">
-        <v>816.8178464924752</v>
+        <v>932.5630660962519</v>
       </c>
       <c r="E26" t="n">
-        <v>441.5866221877922</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="F26" t="n">
-        <v>34.31465285444516</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="G26" t="n">
-        <v>34.31465285444516</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="H26" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I26" t="n">
         <v>34.31465285444516</v>
@@ -6256,22 +6256,22 @@
         <v>1715.732642722258</v>
       </c>
       <c r="T26" t="n">
-        <v>1715.732642722258</v>
+        <v>1526.433607735385</v>
       </c>
       <c r="U26" t="n">
-        <v>1715.732642722258</v>
+        <v>1273.872625516218</v>
       </c>
       <c r="V26" t="n">
-        <v>1715.732642722258</v>
+        <v>1273.872625516218</v>
       </c>
       <c r="W26" t="n">
-        <v>1715.732642722258</v>
+        <v>932.5630660962519</v>
       </c>
       <c r="X26" t="n">
-        <v>1715.732642722258</v>
+        <v>932.5630660962519</v>
       </c>
       <c r="Y26" t="n">
-        <v>1329.585604925844</v>
+        <v>932.5630660962519</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>252.222914027134</v>
+        <v>397.290131000067</v>
       </c>
       <c r="C27" t="n">
         <v>207.8778567330307</v>
@@ -6305,25 +6305,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J27" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K27" t="n">
-        <v>195.4144734331679</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="L27" t="n">
-        <v>478.3196054885461</v>
+        <v>304.6946924676439</v>
       </c>
       <c r="M27" t="n">
-        <v>853.2112150416076</v>
+        <v>679.5863020207055</v>
       </c>
       <c r="N27" t="n">
-        <v>1173.359244302914</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O27" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P27" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q27" t="n">
         <v>1715.732642722258</v>
@@ -6332,25 +6332,25 @@
         <v>1627.958867440573</v>
       </c>
       <c r="S27" t="n">
-        <v>1627.958867440573</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T27" t="n">
-        <v>1627.958867440573</v>
+        <v>1327.87739696553</v>
       </c>
       <c r="U27" t="n">
-        <v>1388.38574176812</v>
+        <v>1088.304271293077</v>
       </c>
       <c r="V27" t="n">
-        <v>1145.306023671754</v>
+        <v>845.2245531967108</v>
       </c>
       <c r="W27" t="n">
-        <v>875.9074544020451</v>
+        <v>575.8259839270021</v>
       </c>
       <c r="X27" t="n">
-        <v>656.3994600187415</v>
+        <v>575.8259839270021</v>
       </c>
       <c r="Y27" t="n">
-        <v>430.7587669540691</v>
+        <v>575.8259839270021</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>110.6966093110902</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C28" t="n">
-        <v>110.6966093110902</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D28" t="n">
-        <v>110.6966093110902</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E28" t="n">
-        <v>110.6966093110902</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F28" t="n">
-        <v>110.6966093110902</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G28" t="n">
         <v>34.31465285444516</v>
@@ -6408,28 +6408,28 @@
         <v>334.8576753800221</v>
       </c>
       <c r="R28" t="n">
-        <v>334.8576753800221</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="S28" t="n">
-        <v>334.8576753800221</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="T28" t="n">
-        <v>334.8576753800221</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="U28" t="n">
-        <v>334.8576753800221</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="V28" t="n">
-        <v>334.8576753800221</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="W28" t="n">
-        <v>334.8576753800221</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="X28" t="n">
-        <v>110.6966093110902</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="Y28" t="n">
-        <v>110.6966093110902</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1715.732642722258</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="C29" t="n">
-        <v>1361.989716074603</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="D29" t="n">
-        <v>1361.989716074603</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="E29" t="n">
-        <v>1361.989716074603</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F29" t="n">
-        <v>954.717746741256</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G29" t="n">
-        <v>533.1030404112473</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H29" t="n">
-        <v>197.4687425880102</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I29" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887602939</v>
       </c>
       <c r="K29" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193744</v>
       </c>
       <c r="L29" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389714</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292773</v>
       </c>
       <c r="N29" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O29" t="n">
         <v>1460.632785841149</v>
@@ -6487,28 +6487,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R29" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S29" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T29" t="n">
-        <v>1715.732642722258</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="U29" t="n">
-        <v>1715.732642722258</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="V29" t="n">
-        <v>1715.732642722258</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="W29" t="n">
-        <v>1715.732642722258</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="X29" t="n">
-        <v>1715.732642722258</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="Y29" t="n">
-        <v>1715.732642722258</v>
+        <v>809.0541084987435</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>34.31465285444516</v>
+        <v>558.0702472390352</v>
       </c>
       <c r="C30" t="n">
-        <v>34.31465285444516</v>
+        <v>368.657972971999</v>
       </c>
       <c r="D30" t="n">
-        <v>34.31465285444516</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E30" t="n">
         <v>34.31465285444516</v>
@@ -6554,40 +6554,40 @@
         <v>873.3058632974212</v>
       </c>
       <c r="N30" t="n">
-        <v>1173.359244302914</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O30" t="n">
-        <v>1486.492278349808</v>
+        <v>1589.672661844326</v>
       </c>
       <c r="P30" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q30" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R30" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S30" t="n">
-        <v>1448.884598007117</v>
+        <v>1638.840798942378</v>
       </c>
       <c r="T30" t="n">
-        <v>1234.878304775052</v>
+        <v>1424.834505710312</v>
       </c>
       <c r="U30" t="n">
-        <v>995.3051791025987</v>
+        <v>1424.834505710312</v>
       </c>
       <c r="V30" t="n">
-        <v>752.2254610062328</v>
+        <v>1181.754787613946</v>
       </c>
       <c r="W30" t="n">
-        <v>482.8268917365241</v>
+        <v>1181.754787613946</v>
       </c>
       <c r="X30" t="n">
-        <v>263.3188973532204</v>
+        <v>962.2467932306427</v>
       </c>
       <c r="Y30" t="n">
-        <v>37.6782042885481</v>
+        <v>736.6061001659702</v>
       </c>
     </row>
     <row r="31">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C31" t="n">
         <v>34.31465285444516</v>
@@ -6651,22 +6651,22 @@
         <v>334.8576753800221</v>
       </c>
       <c r="T31" t="n">
-        <v>202.4532194928011</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U31" t="n">
-        <v>202.4532194928011</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V31" t="n">
-        <v>202.4532194928011</v>
+        <v>87.27281155734542</v>
       </c>
       <c r="W31" t="n">
-        <v>202.4532194928011</v>
+        <v>87.27281155734542</v>
       </c>
       <c r="X31" t="n">
-        <v>202.4532194928011</v>
+        <v>87.27281155734542</v>
       </c>
       <c r="Y31" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34.31465285444518</v>
+        <v>1486.49058329396</v>
       </c>
       <c r="C32" t="n">
-        <v>34.31465285444518</v>
+        <v>1132.747656646304</v>
       </c>
       <c r="D32" t="n">
-        <v>34.31465285444518</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="E32" t="n">
-        <v>34.31465285444518</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="F32" t="n">
-        <v>34.31465285444518</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G32" t="n">
-        <v>34.31465285444518</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H32" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J32" t="n">
-        <v>79.2644088760303</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K32" t="n">
-        <v>253.897506719376</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L32" t="n">
-        <v>525.5283691389729</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M32" t="n">
-        <v>856.6460009292788</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N32" t="n">
-        <v>1186.279026157784</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O32" t="n">
         <v>1460.63278584115</v>
@@ -6721,31 +6721,31 @@
         <v>1650.639799716936</v>
       </c>
       <c r="Q32" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R32" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S32" t="n">
-        <v>1413.54859321015</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T32" t="n">
-        <v>1413.54859321015</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U32" t="n">
-        <v>1413.54859321015</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V32" t="n">
-        <v>1089.427599665551</v>
+        <v>1486.49058329396</v>
       </c>
       <c r="W32" t="n">
-        <v>748.118040245585</v>
+        <v>1486.49058329396</v>
       </c>
       <c r="X32" t="n">
-        <v>384.7011571196192</v>
+        <v>1486.49058329396</v>
       </c>
       <c r="Y32" t="n">
-        <v>34.31465285444518</v>
+        <v>1486.49058329396</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>304.5262490036898</v>
+        <v>908.690668568291</v>
       </c>
       <c r="C33" t="n">
-        <v>304.5262490036898</v>
+        <v>719.2783943012547</v>
       </c>
       <c r="D33" t="n">
-        <v>304.5262490036898</v>
+        <v>558.4982780622864</v>
       </c>
       <c r="E33" t="n">
-        <v>304.5262490036898</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="F33" t="n">
-        <v>303.2750224629867</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G33" t="n">
-        <v>153.8059888862266</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H33" t="n">
-        <v>34.31465285444518</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I33" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J33" t="n">
-        <v>34.31465285444518</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K33" t="n">
-        <v>112.3287381944638</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L33" t="n">
-        <v>395.233870249842</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M33" t="n">
-        <v>770.1254798029036</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N33" t="n">
-        <v>1173.359244302915</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O33" t="n">
-        <v>1486.492278349809</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P33" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q33" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R33" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S33" t="n">
-        <v>1715.732642722259</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T33" t="n">
-        <v>1501.726349490193</v>
+        <v>1403.729930902672</v>
       </c>
       <c r="U33" t="n">
-        <v>1262.15322381774</v>
+        <v>1403.729930902672</v>
       </c>
       <c r="V33" t="n">
-        <v>1019.073505721374</v>
+        <v>1403.729930902672</v>
       </c>
       <c r="W33" t="n">
-        <v>749.6749364516658</v>
+        <v>1134.331361632963</v>
       </c>
       <c r="X33" t="n">
-        <v>530.1669420683621</v>
+        <v>1134.331361632963</v>
       </c>
       <c r="Y33" t="n">
-        <v>304.5262490036898</v>
+        <v>908.690668568291</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.31465285444518</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="C34" t="n">
-        <v>34.31465285444518</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="D34" t="n">
-        <v>34.31465285444518</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="E34" t="n">
-        <v>34.31465285444518</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F34" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G34" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H34" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I34" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J34" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K34" t="n">
-        <v>42.23041924514574</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L34" t="n">
         <v>105.4471208306433</v>
@@ -6882,28 +6882,28 @@
         <v>334.8576753800221</v>
       </c>
       <c r="R34" t="n">
-        <v>260.76332841127</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="S34" t="n">
-        <v>34.31465285444518</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="T34" t="n">
-        <v>34.31465285444518</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="U34" t="n">
-        <v>34.31465285444518</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="V34" t="n">
-        <v>34.31465285444518</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="W34" t="n">
-        <v>34.31465285444518</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="X34" t="n">
-        <v>34.31465285444518</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.31465285444518</v>
+        <v>321.2939785808668</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1610.227176505315</v>
+        <v>1139.050666958494</v>
       </c>
       <c r="C35" t="n">
-        <v>1610.227176505315</v>
+        <v>785.3077403108389</v>
       </c>
       <c r="D35" t="n">
-        <v>1610.227176505315</v>
+        <v>444.1237406722254</v>
       </c>
       <c r="E35" t="n">
-        <v>1234.995952200632</v>
+        <v>444.1237406722254</v>
       </c>
       <c r="F35" t="n">
-        <v>827.7239828672855</v>
+        <v>444.1237406722254</v>
       </c>
       <c r="G35" t="n">
-        <v>406.1092765372769</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H35" t="n">
-        <v>70.47497871403976</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I35" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K35" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292783</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N35" t="n">
         <v>1186.279026157783</v>
@@ -6961,28 +6961,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R35" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S35" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T35" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U35" t="n">
-        <v>1610.227176505315</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V35" t="n">
-        <v>1610.227176505315</v>
+        <v>1139.050666958494</v>
       </c>
       <c r="W35" t="n">
-        <v>1610.227176505315</v>
+        <v>1139.050666958494</v>
       </c>
       <c r="X35" t="n">
-        <v>1610.227176505315</v>
+        <v>1139.050666958494</v>
       </c>
       <c r="Y35" t="n">
-        <v>1610.227176505315</v>
+        <v>1139.050666958494</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>263.3188973532204</v>
+        <v>561.3031895137356</v>
       </c>
       <c r="C36" t="n">
-        <v>73.90662308618417</v>
+        <v>371.8909152466993</v>
       </c>
       <c r="D36" t="n">
-        <v>34.31465285444516</v>
+        <v>371.8909152466993</v>
       </c>
       <c r="E36" t="n">
-        <v>34.31465285444516</v>
+        <v>198.3277113681137</v>
       </c>
       <c r="F36" t="n">
-        <v>34.31465285444516</v>
+        <v>198.3277113681137</v>
       </c>
       <c r="G36" t="n">
-        <v>34.31465285444516</v>
+        <v>48.85867779135361</v>
       </c>
       <c r="H36" t="n">
         <v>34.31465285444516</v>
@@ -7025,7 +7025,7 @@
         <v>478.3196054885461</v>
       </c>
       <c r="M36" t="n">
-        <v>679.5863020207055</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N36" t="n">
         <v>1082.820066520717</v>
@@ -7049,19 +7049,19 @@
         <v>1234.878304775052</v>
       </c>
       <c r="U36" t="n">
-        <v>995.3051791025987</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="V36" t="n">
-        <v>752.2254610062328</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="W36" t="n">
-        <v>482.8268917365241</v>
+        <v>965.479735505343</v>
       </c>
       <c r="X36" t="n">
-        <v>263.3188973532204</v>
+        <v>965.479735505343</v>
       </c>
       <c r="Y36" t="n">
-        <v>263.3188973532204</v>
+        <v>739.8390424406707</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="C37" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="D37" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="E37" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F37" t="n">
         <v>34.31465285444516</v>
@@ -7116,31 +7116,31 @@
         <v>334.8576753800221</v>
       </c>
       <c r="Q37" t="n">
-        <v>260.9755581809701</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R37" t="n">
-        <v>260.9755581809701</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S37" t="n">
-        <v>260.9755581809701</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T37" t="n">
-        <v>260.9755581809701</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U37" t="n">
-        <v>260.9755581809701</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V37" t="n">
-        <v>260.9755581809701</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W37" t="n">
-        <v>258.475718923377</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="X37" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1579.616552461097</v>
+        <v>1158.001846131089</v>
       </c>
       <c r="C38" t="n">
-        <v>1579.616552461097</v>
+        <v>1158.001846131089</v>
       </c>
       <c r="D38" t="n">
-        <v>1238.432552822484</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="E38" t="n">
-        <v>863.2013285178008</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F38" t="n">
-        <v>455.9293591844538</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G38" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H38" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I38" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.2644088760303</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K38" t="n">
-        <v>253.897506719376</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L38" t="n">
-        <v>525.5283691389729</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M38" t="n">
-        <v>856.6460009292788</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N38" t="n">
-        <v>1186.279026157784</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O38" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P38" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q38" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R38" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S38" t="n">
-        <v>1579.616552461097</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T38" t="n">
-        <v>1579.616552461097</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U38" t="n">
-        <v>1579.616552461097</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V38" t="n">
-        <v>1579.616552461097</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="W38" t="n">
-        <v>1579.616552461097</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="X38" t="n">
-        <v>1579.616552461097</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="Y38" t="n">
-        <v>1579.616552461097</v>
+        <v>1158.001846131089</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>482.8268917365245</v>
+        <v>312.7217702661314</v>
       </c>
       <c r="C39" t="n">
-        <v>482.8268917365245</v>
+        <v>312.7217702661314</v>
       </c>
       <c r="D39" t="n">
-        <v>482.8268917365245</v>
+        <v>312.7217702661314</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8268917365245</v>
+        <v>139.1585663875459</v>
       </c>
       <c r="F39" t="n">
-        <v>322.3991754537686</v>
+        <v>139.1585663875459</v>
       </c>
       <c r="G39" t="n">
-        <v>172.9301418770085</v>
+        <v>139.1585663875459</v>
       </c>
       <c r="H39" t="n">
-        <v>53.43880584522711</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I39" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J39" t="n">
-        <v>34.31465285444518</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K39" t="n">
-        <v>195.4144734331679</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L39" t="n">
-        <v>478.3196054885461</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M39" t="n">
-        <v>853.2112150416076</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N39" t="n">
-        <v>1256.444979541619</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O39" t="n">
-        <v>1569.578013588513</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P39" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q39" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R39" t="n">
         <v>1627.958867440573</v>
       </c>
       <c r="S39" t="n">
-        <v>1448.884598007118</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T39" t="n">
-        <v>1234.878304775052</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="U39" t="n">
-        <v>995.3051791025991</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="V39" t="n">
-        <v>752.2254610062332</v>
+        <v>1205.804879910751</v>
       </c>
       <c r="W39" t="n">
-        <v>482.8268917365245</v>
+        <v>936.4063106410425</v>
       </c>
       <c r="X39" t="n">
-        <v>482.8268917365245</v>
+        <v>716.8983162577389</v>
       </c>
       <c r="Y39" t="n">
-        <v>482.8268917365245</v>
+        <v>491.2576231930665</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>202.4532194928011</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="C40" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="D40" t="n">
-        <v>34.31465285444518</v>
+        <v>188.2085337126377</v>
       </c>
       <c r="E40" t="n">
-        <v>34.31465285444518</v>
+        <v>188.2085337126377</v>
       </c>
       <c r="F40" t="n">
-        <v>34.31465285444518</v>
+        <v>188.2085337126377</v>
       </c>
       <c r="G40" t="n">
-        <v>34.31465285444518</v>
+        <v>188.2085337126377</v>
       </c>
       <c r="H40" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I40" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J40" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
         <v>42.23041924514574</v>
@@ -7344,40 +7344,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N40" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O40" t="n">
-        <v>315.4306320098956</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P40" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q40" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R40" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S40" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T40" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U40" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V40" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W40" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="X40" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Y40" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1519.054059427092</v>
+        <v>1132.747656646304</v>
       </c>
       <c r="C41" t="n">
-        <v>1519.054059427092</v>
+        <v>1132.747656646304</v>
       </c>
       <c r="D41" t="n">
-        <v>1238.432552822484</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="E41" t="n">
-        <v>863.2013285178008</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="F41" t="n">
-        <v>455.9293591844538</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G41" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H41" t="n">
         <v>34.31465285444516</v>
@@ -7438,25 +7438,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S41" t="n">
-        <v>1519.054059427092</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T41" t="n">
-        <v>1519.054059427092</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U41" t="n">
-        <v>1519.054059427092</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V41" t="n">
-        <v>1519.054059427092</v>
+        <v>1518.894694442718</v>
       </c>
       <c r="W41" t="n">
-        <v>1519.054059427092</v>
+        <v>1518.894694442718</v>
       </c>
       <c r="X41" t="n">
-        <v>1519.054059427092</v>
+        <v>1518.894694442718</v>
       </c>
       <c r="Y41" t="n">
-        <v>1519.054059427092</v>
+        <v>1132.747656646304</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>223.7269271214815</v>
+        <v>538.3624633308036</v>
       </c>
       <c r="C42" t="n">
-        <v>34.31465285444516</v>
+        <v>488.1493090037804</v>
       </c>
       <c r="D42" t="n">
-        <v>34.31465285444516</v>
+        <v>327.3691927648122</v>
       </c>
       <c r="E42" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="F42" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="G42" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H42" t="n">
         <v>34.31465285444516</v>
@@ -7493,13 +7493,13 @@
         <v>54.4093011102587</v>
       </c>
       <c r="K42" t="n">
-        <v>112.3287381944628</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L42" t="n">
-        <v>395.2338702498411</v>
+        <v>498.4142537443597</v>
       </c>
       <c r="M42" t="n">
-        <v>770.1254798029026</v>
+        <v>873.3058632974213</v>
       </c>
       <c r="N42" t="n">
         <v>1173.359244302914</v>
@@ -7514,28 +7514,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R42" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S42" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T42" t="n">
-        <v>1501.726349490193</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="U42" t="n">
-        <v>1262.15322381774</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="V42" t="n">
-        <v>1019.073505721374</v>
+        <v>1205.804879910751</v>
       </c>
       <c r="W42" t="n">
-        <v>749.6749364516651</v>
+        <v>936.4063106410423</v>
       </c>
       <c r="X42" t="n">
-        <v>530.1669420683614</v>
+        <v>716.8983162577387</v>
       </c>
       <c r="Y42" t="n">
-        <v>304.5262490036891</v>
+        <v>716.8983162577387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1715.732642722258</v>
+        <v>155.446644405307</v>
       </c>
       <c r="C43" t="n">
-        <v>1715.732642722258</v>
+        <v>155.446644405307</v>
       </c>
       <c r="D43" t="n">
-        <v>1715.732642722258</v>
+        <v>155.446644405307</v>
       </c>
       <c r="E43" t="n">
-        <v>1715.732642722258</v>
+        <v>155.446644405307</v>
       </c>
       <c r="F43" t="n">
-        <v>1584.94215937206</v>
+        <v>155.446644405307</v>
       </c>
       <c r="G43" t="n">
-        <v>1415.189620196681</v>
+        <v>155.446644405307</v>
       </c>
       <c r="H43" t="n">
-        <v>1415.189620196681</v>
+        <v>155.446644405307</v>
       </c>
       <c r="I43" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J43" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L43" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M43" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N43" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O43" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="X43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Y43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>455.9293591844538</v>
+        <v>1085.305761131543</v>
       </c>
       <c r="C44" t="n">
-        <v>455.9293591844538</v>
+        <v>1085.305761131543</v>
       </c>
       <c r="D44" t="n">
-        <v>455.9293591844538</v>
+        <v>1085.305761131543</v>
       </c>
       <c r="E44" t="n">
-        <v>455.9293591844538</v>
+        <v>710.07453682686</v>
       </c>
       <c r="F44" t="n">
-        <v>455.9293591844538</v>
+        <v>302.802567493513</v>
       </c>
       <c r="G44" t="n">
-        <v>34.31465285444516</v>
+        <v>302.802567493513</v>
       </c>
       <c r="H44" t="n">
         <v>34.31465285444516</v>
@@ -7672,28 +7672,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R44" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S44" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T44" t="n">
-        <v>1195.201146295157</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U44" t="n">
-        <v>942.640164075991</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V44" t="n">
-        <v>618.519170531393</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="W44" t="n">
-        <v>455.9293591844538</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="X44" t="n">
-        <v>455.9293591844538</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="Y44" t="n">
-        <v>455.9293591844538</v>
+        <v>1463.171660503092</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>34.31465285444516</v>
+        <v>653.4674129689913</v>
       </c>
       <c r="C45" t="n">
-        <v>34.31465285444516</v>
+        <v>464.055138701955</v>
       </c>
       <c r="D45" t="n">
-        <v>34.31465285444516</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="E45" t="n">
-        <v>34.31465285444516</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="F45" t="n">
-        <v>34.31465285444516</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G45" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H45" t="n">
         <v>34.31465285444516</v>
@@ -7730,22 +7730,22 @@
         <v>54.4093011102587</v>
       </c>
       <c r="K45" t="n">
-        <v>112.3287381944628</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L45" t="n">
-        <v>395.2338702498411</v>
+        <v>498.4142537443597</v>
       </c>
       <c r="M45" t="n">
-        <v>770.1254798029026</v>
+        <v>873.3058632974213</v>
       </c>
       <c r="N45" t="n">
-        <v>1173.359244302914</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O45" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P45" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q45" t="n">
         <v>1715.732642722258</v>
@@ -7754,25 +7754,25 @@
         <v>1627.958867440572</v>
       </c>
       <c r="S45" t="n">
-        <v>1448.884598007117</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T45" t="n">
-        <v>1234.878304775051</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="U45" t="n">
-        <v>995.3051791025985</v>
+        <v>1174.379448536054</v>
       </c>
       <c r="V45" t="n">
-        <v>752.2254610062325</v>
+        <v>931.2997304396881</v>
       </c>
       <c r="W45" t="n">
-        <v>482.8268917365239</v>
+        <v>832.0032658959265</v>
       </c>
       <c r="X45" t="n">
-        <v>263.3188973532202</v>
+        <v>832.0032658959265</v>
       </c>
       <c r="Y45" t="n">
-        <v>37.67820428854787</v>
+        <v>832.0032658959265</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.31465285444516</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="C46" t="n">
-        <v>34.31465285444516</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="D46" t="n">
-        <v>34.31465285444516</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="E46" t="n">
-        <v>34.31465285444516</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="F46" t="n">
-        <v>34.31465285444516</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="G46" t="n">
-        <v>34.31465285444516</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="H46" t="n">
         <v>34.31465285444516</v>
@@ -7842,16 +7842,16 @@
         <v>43.32097474015944</v>
       </c>
       <c r="V46" t="n">
-        <v>34.31465285444516</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="W46" t="n">
-        <v>34.31465285444516</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="X46" t="n">
-        <v>34.31465285444516</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.31465285444516</v>
+        <v>43.32097474015944</v>
       </c>
     </row>
   </sheetData>
@@ -8774,7 +8774,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>240.3045437566416</v>
+        <v>136.0819341662192</v>
       </c>
       <c r="M12" t="n">
         <v>301.77688131</v>
@@ -8786,7 +8786,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P12" t="n">
-        <v>102.1412644882571</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
         <v>44.67636752131756</v>
@@ -9011,10 +9011,10 @@
         <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>44.62821923470577</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>301.77688131</v>
+        <v>197.5542717195777</v>
       </c>
       <c r="N15" t="n">
         <v>310.6138585746227</v>
@@ -9026,7 +9026,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9254,16 +9254,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>206.3912489842004</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O18" t="n">
-        <v>255.2227828913207</v>
+        <v>151.0001733008979</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.67636752131756</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9494,13 +9494,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O21" t="n">
-        <v>151.0001733008988</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
-        <v>206.3638740786793</v>
+        <v>10.68754955674432</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.67636752131756</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9716,7 +9716,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>61.40936639976319</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
         <v>8.64638209049167</v>
@@ -9728,7 +9728,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>310.6138585746227</v>
+        <v>277.664625546347</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -9737,7 +9737,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>123.4784739253762</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9953,19 +9953,19 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>61.40936639976319</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>171.373473584151</v>
+        <v>8.64638209049167</v>
       </c>
       <c r="L27" t="n">
-        <v>240.3045437566416</v>
+        <v>207.3553107283658</v>
       </c>
       <c r="M27" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>226.6888734850222</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O27" t="n">
         <v>255.2227828913207</v>
@@ -9974,7 +9974,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.67636752131756</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10202,16 +10202,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N30" t="n">
-        <v>206.3912489842004</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O30" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
-        <v>206.3638740786793</v>
+        <v>10.68754955674432</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.67636752131756</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10427,13 +10427,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>61.40936639976319</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>87.44848849455086</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L33" t="n">
-        <v>240.3045437566416</v>
+        <v>136.0819341662192</v>
       </c>
       <c r="M33" t="n">
         <v>301.77688131</v>
@@ -10673,10 +10673,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M36" t="n">
-        <v>126.3981812888867</v>
+        <v>301.77688131</v>
       </c>
       <c r="N36" t="n">
-        <v>310.6138585746227</v>
+        <v>135.2351585535095</v>
       </c>
       <c r="O36" t="n">
         <v>255.2227828913207</v>
@@ -10901,13 +10901,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>61.40936639976319</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L39" t="n">
-        <v>240.3045437566416</v>
+        <v>136.0819341662192</v>
       </c>
       <c r="M39" t="n">
         <v>301.77688131</v>
@@ -10919,10 +10919,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P39" t="n">
-        <v>122.4388889890793</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.67636752131756</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11141,7 +11141,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>67.15086399372811</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L42" t="n">
         <v>240.3045437566416</v>
@@ -11150,7 +11150,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N42" t="n">
-        <v>310.6138585746227</v>
+        <v>206.3912489841998</v>
       </c>
       <c r="O42" t="n">
         <v>255.2227828913207</v>
@@ -11308,7 +11308,7 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N44" t="n">
-        <v>283.4008070189657</v>
+        <v>283.4008070189656</v>
       </c>
       <c r="O44" t="n">
         <v>246.758517458259</v>
@@ -11317,7 +11317,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.580113947618</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11378,7 +11378,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>67.15086399372811</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L45" t="n">
         <v>240.3045437566416</v>
@@ -11387,7 +11387,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N45" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526873</v>
       </c>
       <c r="O45" t="n">
         <v>255.2227828913207</v>
@@ -11396,7 +11396,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.67636752131754</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>331.4393274615814</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,10 +23266,10 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>84.40246188850119</v>
       </c>
       <c r="G11" t="n">
         <v>417.3985592667085</v>
@@ -23278,7 +23278,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
         <v>337.8964638257669</v>
@@ -23342,16 +23342,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.8852911970903</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>118.2964226714636</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>213.2369327483962</v>
       </c>
     </row>
     <row r="13">
@@ -23436,10 +23436,10 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I13" t="n">
-        <v>145.433169315347</v>
+        <v>138.2062841043612</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R13" t="n">
-        <v>24.58419038258725</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S13" t="n">
         <v>224.1841888012565</v>
@@ -23478,7 +23478,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>221.9194554082425</v>
@@ -23500,22 +23500,22 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>45.25992804697626</v>
+        <v>83.34634230353224</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.1639724458418</v>
@@ -23557,10 +23557,10 @@
         <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>382.2855674184499</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>4.440827956589573</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>44.0652505111141</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -23588,10 +23588,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>80.84345120350704</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>211.8662302997449</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -23658,7 +23658,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -23670,7 +23670,7 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H16" t="n">
-        <v>86.72959053406002</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I16" t="n">
         <v>145.433169315347</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R16" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T16" t="n">
         <v>221.0023972007068</v>
@@ -23715,7 +23715,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W16" t="n">
-        <v>290.3107070893353</v>
+        <v>137.9557650397249</v>
       </c>
       <c r="X16" t="n">
         <v>221.9194554082425</v>
@@ -23737,7 +23737,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>371.4789120616362</v>
@@ -23749,7 +23749,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>185.5090622027478</v>
@@ -23785,13 +23785,13 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T17" t="n">
-        <v>202.4400640217563</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>85.4110500570203</v>
       </c>
     </row>
     <row r="18">
@@ -23810,19 +23810,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>12.64817367290092</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>170.5888575645044</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>89.92198587235799</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D19" t="n">
         <v>145.1826502507107</v>
@@ -23910,7 +23910,7 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I19" t="n">
-        <v>145.433169315347</v>
+        <v>25.51249767999384</v>
       </c>
       <c r="J19" t="n">
         <v>74.58429473553585</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.14329602706151</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R19" t="n">
         <v>174.3941919203111</v>
@@ -23943,7 +23943,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U19" t="n">
         <v>288.6213336334641</v>
@@ -23977,13 +23977,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>417.3985592667085</v>
+        <v>251.7656487582355</v>
       </c>
       <c r="H20" t="n">
         <v>332.2779548450047</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
-        <v>207.3360490681309</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24037,7 +24037,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="21">
@@ -24053,22 +24053,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>119.435943627708</v>
+        <v>124.1647518671558</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C22" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>145.1826502507107</v>
@@ -24186,13 +24186,13 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V22" t="n">
-        <v>245.1090151844499</v>
+        <v>114.0286038561011</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6925701972567</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y22" t="n">
         <v>217.1412728141684</v>
@@ -24211,16 +24211,16 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>286.9274959063204</v>
       </c>
       <c r="E23" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>332.2779548450047</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>119.3167056202944</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>87.01003527891439</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
         <v>118.2964226714636</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>94.23414642525819</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24372,10 +24372,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
-        <v>128.4986004456975</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
         <v>168.0550137836253</v>
@@ -24384,7 +24384,7 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J25" t="n">
         <v>74.58429473553585</v>
@@ -24414,7 +24414,7 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S25" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.0023972007068</v>
@@ -24432,7 +24432,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.1412728141684</v>
+        <v>143.7878693151038</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
-        <v>180.3375761743706</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H26" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
-        <v>216.1639724458418</v>
+        <v>28.75792780883677</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>143.6165448032036</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -24572,10 +24572,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>211.8662302997449</v>
+        <v>92.06910126857331</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -24615,7 +24615,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>92.43687689154666</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H28" t="n">
         <v>160.0829940331247</v>
@@ -24648,7 +24648,7 @@
         <v>73.14329602706151</v>
       </c>
       <c r="R28" t="n">
-        <v>174.3941919203111</v>
+        <v>93.99787243415835</v>
       </c>
       <c r="S28" t="n">
         <v>224.1841888012565</v>
@@ -24666,10 +24666,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>24.49373855668654</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
@@ -24691,16 +24691,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
-        <v>23.98651336651838</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.0353723969745</v>
@@ -24748,7 +24748,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>173.4205784779038</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -24806,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>101.1606013970392</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
@@ -24891,13 +24891,13 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T31" t="n">
-        <v>89.92198587235799</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U31" t="n">
         <v>288.6213336334641</v>
       </c>
       <c r="V31" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>290.3107070893353</v>
@@ -24906,7 +24906,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y31" t="n">
-        <v>217.1412728141684</v>
+        <v>164.7126956982972</v>
       </c>
     </row>
     <row r="32">
@@ -24919,10 +24919,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>371.4789120616362</v>
@@ -24931,10 +24931,10 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>185.5090622027478</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
         <v>216.1639724458418</v>
@@ -24976,16 +24976,16 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>93.93014477513631</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.40292819592759</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -24998,16 +24998,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>157.5847248446323</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25016,7 +25016,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,22 +25046,22 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S33" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>80.26707233747553</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>168.0550137836253</v>
@@ -25122,10 +25122,10 @@
         <v>73.14329602706151</v>
       </c>
       <c r="R34" t="n">
-        <v>101.0407884212465</v>
+        <v>160.9661320891473</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T34" t="n">
         <v>221.0023972007068</v>
@@ -25156,25 +25156,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>343.9655171721108</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>149.7103396017491</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
         <v>194.7117974622146</v>
@@ -25210,10 +25210,10 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>337.8964638257669</v>
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>119.9762645471569</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>118.2964226714636</v>
+        <v>103.8978379839242</v>
       </c>
       <c r="I36" t="n">
         <v>80.84345120350704</v>
@@ -25289,19 +25289,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25314,7 +25314,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
-        <v>166.4571809719723</v>
+        <v>7.846470890097862</v>
       </c>
       <c r="D37" t="n">
         <v>145.1826502507107</v>
@@ -25323,7 +25323,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>168.0550137836253</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R37" t="n">
         <v>174.3941919203111</v>
@@ -25374,10 +25374,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>287.8358662243182</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
         <v>217.1412728141684</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H38" t="n">
         <v>332.2779548450047</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S38" t="n">
-        <v>164.4072796584381</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T38" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25459,7 +25459,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>80.16745119016628</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -25478,19 +25478,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>14.50094827369388</v>
       </c>
       <c r="I39" t="n">
-        <v>61.91053974263293</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,10 +25523,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.5365093366193</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>141.676141212225</v>
@@ -25566,7 +25566,7 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H40" t="n">
-        <v>160.0829940331247</v>
+        <v>7.728051983514206</v>
       </c>
       <c r="I40" t="n">
         <v>145.433169315347</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.14329602706151</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R40" t="n">
         <v>174.3941919203111</v>
@@ -25633,19 +25633,19 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>59.95686810366522</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>185.5090622027478</v>
@@ -25678,7 +25678,7 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T41" t="n">
         <v>216.1639724458418</v>
@@ -25687,7 +25687,7 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>126.0102148124075</v>
       </c>
       <c r="W41" t="n">
         <v>337.8964638257669</v>
@@ -25696,7 +25696,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>96.75916573428017</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>137.807128740613</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -25724,7 +25724,7 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H42" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>80.84345120350704</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -25797,16 +25797,16 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>9.44430370175067</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H43" t="n">
         <v>160.0829940331247</v>
       </c>
       <c r="I43" t="n">
-        <v>145.433169315347</v>
+        <v>25.51249767999386</v>
       </c>
       <c r="J43" t="n">
         <v>74.58429473553585</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
@@ -25873,16 +25873,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
-        <v>332.2779548450047</v>
+        <v>66.4749193523275</v>
       </c>
       <c r="I44" t="n">
         <v>185.5090622027478</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>176.9325505922971</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
         <v>359.7827142947061</v>
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>173.4205784779041</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -25958,10 +25958,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>80.84345120350704</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26006,13 +26006,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>168.4010836786875</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -26040,7 +26040,7 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H46" t="n">
-        <v>160.0829940331247</v>
+        <v>151.1667353662676</v>
       </c>
       <c r="I46" t="n">
         <v>145.433169315347</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>236.1927565175928</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W46" t="n">
         <v>290.3107070893353</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>535905.5427128066</v>
+        <v>535905.5427128064</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>535905.5427128064</v>
+        <v>535905.5427128066</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>535905.5427128066</v>
+        <v>535905.5427128064</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>535905.5427128064</v>
+        <v>535905.5427128065</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>535905.5427128066</v>
+        <v>535905.5427128065</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>535905.5427128066</v>
+        <v>535905.5427128065</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>535905.5427128064</v>
+        <v>535905.5427128066</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>639400.6965029332</v>
+        <v>639400.6965029333</v>
       </c>
       <c r="C2" t="n">
         <v>639400.6965029332</v>
       </c>
       <c r="D2" t="n">
-        <v>639400.696502933</v>
+        <v>639400.6965029332</v>
       </c>
       <c r="E2" t="n">
+        <v>363170.0814330822</v>
+      </c>
+      <c r="F2" t="n">
         <v>363170.0814330821</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>363170.081433082</v>
-      </c>
-      <c r="G2" t="n">
-        <v>363170.0814330822</v>
       </c>
       <c r="H2" t="n">
         <v>363170.0814330822</v>
       </c>
       <c r="I2" t="n">
-        <v>363170.0814330822</v>
+        <v>363170.0814330824</v>
       </c>
       <c r="J2" t="n">
         <v>363170.0814330822</v>
       </c>
       <c r="K2" t="n">
-        <v>363170.0814330822</v>
+        <v>363170.0814330821</v>
       </c>
       <c r="L2" t="n">
         <v>363170.0814330822</v>
@@ -26355,7 +26355,7 @@
         <v>363170.0814330821</v>
       </c>
       <c r="P2" t="n">
-        <v>363170.0814330823</v>
+        <v>363170.0814330822</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>497053.1518174926</v>
+        <v>497053.1518174925</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>403791.6199395953</v>
+        <v>403791.6199395952</v>
       </c>
       <c r="C4" t="n">
         <v>403791.6199395953</v>
       </c>
       <c r="D4" t="n">
-        <v>403791.6199395953</v>
+        <v>403791.6199395952</v>
       </c>
       <c r="E4" t="n">
         <v>22779.9226089727</v>
       </c>
       <c r="F4" t="n">
-        <v>22779.92260897269</v>
+        <v>22779.9226089727</v>
       </c>
       <c r="G4" t="n">
         <v>22779.9226089727</v>
       </c>
       <c r="H4" t="n">
-        <v>22779.92260897271</v>
+        <v>22779.9226089727</v>
       </c>
       <c r="I4" t="n">
         <v>22779.9226089727</v>
       </c>
       <c r="J4" t="n">
-        <v>22779.92260897271</v>
+        <v>22779.9226089727</v>
       </c>
       <c r="K4" t="n">
         <v>22779.9226089727</v>
@@ -26453,7 +26453,7 @@
         <v>22779.9226089727</v>
       </c>
       <c r="N4" t="n">
-        <v>22779.92260897271</v>
+        <v>22779.9226089727</v>
       </c>
       <c r="O4" t="n">
         <v>22779.9226089727</v>
@@ -26481,13 +26481,13 @@
         <v>36091.33751189046</v>
       </c>
       <c r="F5" t="n">
+        <v>36091.33751189046</v>
+      </c>
+      <c r="G5" t="n">
         <v>36091.33751189045</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>36091.33751189046</v>
-      </c>
-      <c r="H5" t="n">
-        <v>36091.33751189047</v>
       </c>
       <c r="I5" t="n">
         <v>36091.33751189046</v>
@@ -26499,7 +26499,7 @@
         <v>36091.33751189046</v>
       </c>
       <c r="L5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="M5" t="n">
         <v>36091.33751189046</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201981.4765633379</v>
+        <v>201936.8127212861</v>
       </c>
       <c r="C6" t="n">
-        <v>201981.4765633379</v>
+        <v>201936.812721286</v>
       </c>
       <c r="D6" t="n">
-        <v>201981.4765633378</v>
+        <v>201936.812721286</v>
       </c>
       <c r="E6" t="n">
-        <v>-192754.3305052737</v>
+        <v>-202324.1879704237</v>
       </c>
       <c r="F6" t="n">
-        <v>304298.8213122188</v>
+        <v>294728.9638470687</v>
       </c>
       <c r="G6" t="n">
-        <v>304298.8213122191</v>
+        <v>294728.9638470686</v>
       </c>
       <c r="H6" t="n">
-        <v>304298.8213122191</v>
+        <v>294728.9638470688</v>
       </c>
       <c r="I6" t="n">
-        <v>304298.821312219</v>
+        <v>294728.963847069</v>
       </c>
       <c r="J6" t="n">
-        <v>304298.8213122191</v>
+        <v>294728.9638470688</v>
       </c>
       <c r="K6" t="n">
-        <v>304298.821312219</v>
+        <v>294728.9638470687</v>
       </c>
       <c r="L6" t="n">
-        <v>304298.8213122191</v>
+        <v>294728.9638470688</v>
       </c>
       <c r="M6" t="n">
-        <v>197406.9619379796</v>
+        <v>187837.1044728295</v>
       </c>
       <c r="N6" t="n">
-        <v>304298.8213122191</v>
+        <v>294728.9638470688</v>
       </c>
       <c r="O6" t="n">
-        <v>304298.8213122189</v>
+        <v>294728.9638470687</v>
       </c>
       <c r="P6" t="n">
-        <v>304298.8213122192</v>
+        <v>294728.9638470688</v>
       </c>
     </row>
   </sheetData>
@@ -26749,10 +26749,10 @@
         <v>459.2752909409236</v>
       </c>
       <c r="F3" t="n">
+        <v>459.2752909409236</v>
+      </c>
+      <c r="G3" t="n">
         <v>459.2752909409237</v>
-      </c>
-      <c r="G3" t="n">
-        <v>459.2752909409236</v>
       </c>
       <c r="H3" t="n">
         <v>459.2752909409236</v>
@@ -26773,7 +26773,7 @@
         <v>459.2752909409236</v>
       </c>
       <c r="N3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="O3" t="n">
         <v>459.2752909409237</v>
@@ -26801,13 +26801,13 @@
         <v>428.9331606805646</v>
       </c>
       <c r="F4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="G4" t="n">
         <v>428.9331606805645</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>428.9331606805646</v>
-      </c>
-      <c r="H4" t="n">
-        <v>428.9331606805647</v>
       </c>
       <c r="I4" t="n">
         <v>428.9331606805646</v>
@@ -26819,13 +26819,13 @@
         <v>428.9331606805646</v>
       </c>
       <c r="L4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="M4" t="n">
         <v>428.9331606805646</v>
       </c>
       <c r="N4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="O4" t="n">
         <v>428.9331606805645</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32001,16 +32001,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K14" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L14" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M14" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N14" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O14" t="n">
         <v>311.0863102573771</v>
@@ -32019,16 +32019,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R14" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S14" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T14" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U14" t="n">
         <v>0.1477066262322567</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H15" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I15" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K15" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L15" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M15" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N15" t="n">
         <v>256.9298629953381</v>
@@ -32101,16 +32101,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R15" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S15" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T15" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H16" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I16" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J16" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L16" t="n">
         <v>123.1309525909486</v>
@@ -32177,7 +32177,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R16" t="n">
         <v>37.2389440818657</v>
@@ -32189,7 +32189,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32238,16 +32238,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K17" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L17" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M17" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N17" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O17" t="n">
         <v>311.0863102573771</v>
@@ -32256,16 +32256,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R17" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S17" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T17" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U17" t="n">
         <v>0.1477066262322567</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H18" t="n">
-        <v>9.540794251433152</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I18" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J18" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K18" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L18" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M18" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N18" t="n">
         <v>256.9298629953381</v>
@@ -32338,16 +32338,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R18" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S18" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T18" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H19" t="n">
-        <v>7.363462861315141</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I19" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J19" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K19" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L19" t="n">
         <v>123.1309525909486</v>
@@ -32414,7 +32414,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R19" t="n">
         <v>37.2389440818657</v>
@@ -32426,7 +32426,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33897,16 +33897,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K38" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L38" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M38" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N38" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O38" t="n">
         <v>311.0863102573771</v>
@@ -33915,16 +33915,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q38" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R38" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S38" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T38" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U38" t="n">
         <v>0.1477066262322567</v>
@@ -33964,25 +33964,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H39" t="n">
-        <v>9.540794251433152</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I39" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J39" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K39" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L39" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M39" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N39" t="n">
         <v>256.9298629953381</v>
@@ -33997,16 +33997,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R39" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S39" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T39" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H40" t="n">
-        <v>7.363462861315141</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I40" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J40" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K40" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L40" t="n">
         <v>123.1309525909486</v>
@@ -34073,7 +34073,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R40" t="n">
         <v>37.2389440818657</v>
@@ -34085,7 +34085,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>162.7270914936593</v>
       </c>
       <c r="L12" t="n">
-        <v>285.7627596518972</v>
+        <v>181.5401500614749</v>
       </c>
       <c r="M12" t="n">
         <v>378.678393487941</v>
@@ -35506,7 +35506,7 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P12" t="n">
-        <v>127.3333140181132</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N14" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O14" t="n">
         <v>277.1250097811783</v>
@@ -35667,7 +35667,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.29762450082175</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K15" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L15" t="n">
-        <v>90.08643512996142</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M15" t="n">
-        <v>378.678393487941</v>
+        <v>274.4557838975187</v>
       </c>
       <c r="N15" t="n">
         <v>407.3068328282941</v>
       </c>
       <c r="O15" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P15" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.45371493151266</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M16" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N16" t="n">
-        <v>82.29890925793121</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N17" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O17" t="n">
         <v>277.1250097811783</v>
@@ -35904,7 +35904,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.29762450082174</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K18" t="n">
         <v>162.7270914936593</v>
@@ -35974,10 +35974,10 @@
         <v>378.678393487941</v>
       </c>
       <c r="N18" t="n">
-        <v>303.0842232378718</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2959939867616</v>
+        <v>212.0733843963388</v>
       </c>
       <c r="P18" t="n">
         <v>231.5559236085354</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L19" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M19" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N19" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O19" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36214,13 +36214,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O21" t="n">
-        <v>212.0733843963397</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P21" t="n">
-        <v>231.5559236085354</v>
+        <v>35.87959908660044</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>378.678393487941</v>
       </c>
       <c r="N24" t="n">
-        <v>407.3068328282941</v>
+        <v>374.3575998000184</v>
       </c>
       <c r="O24" t="n">
         <v>316.2959939867616</v>
@@ -36457,7 +36457,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.80210640405862</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K27" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>285.7627596518972</v>
+        <v>252.8135266236214</v>
       </c>
       <c r="M27" t="n">
         <v>378.678393487941</v>
       </c>
       <c r="N27" t="n">
-        <v>323.3818477386936</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O27" t="n">
         <v>316.2959939867616</v>
@@ -36694,7 +36694,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>378.678393487941</v>
       </c>
       <c r="N30" t="n">
-        <v>303.0842232378718</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O30" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P30" t="n">
-        <v>231.5559236085354</v>
+        <v>35.87959908660044</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K33" t="n">
-        <v>78.80210640405919</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L33" t="n">
-        <v>285.7627596518972</v>
+        <v>181.5401500614749</v>
       </c>
       <c r="M33" t="n">
         <v>378.678393487941</v>
@@ -37393,10 +37393,10 @@
         <v>285.7627596518972</v>
       </c>
       <c r="M36" t="n">
-        <v>203.2996934668277</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N36" t="n">
-        <v>407.3068328282941</v>
+        <v>231.9281328071808</v>
       </c>
       <c r="O36" t="n">
         <v>316.2959939867616</v>
@@ -37554,7 +37554,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N38" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O38" t="n">
         <v>277.1250097811783</v>
@@ -37563,7 +37563,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K39" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L39" t="n">
-        <v>285.7627596518972</v>
+        <v>181.5401500614748</v>
       </c>
       <c r="M39" t="n">
         <v>378.678393487941</v>
@@ -37636,10 +37636,10 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O39" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P39" t="n">
-        <v>147.6309385189354</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L40" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M40" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N40" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O40" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P40" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>20.29762450082175</v>
       </c>
       <c r="K42" t="n">
-        <v>58.50448190323646</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L42" t="n">
         <v>285.7627596518972</v>
@@ -37870,7 +37870,7 @@
         <v>378.678393487941</v>
       </c>
       <c r="N42" t="n">
-        <v>407.3068328282941</v>
+        <v>303.0842232378712</v>
       </c>
       <c r="O42" t="n">
         <v>316.2959939867617</v>
@@ -38028,7 +38028,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N44" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O44" t="n">
         <v>277.1250097811783</v>
@@ -38037,7 +38037,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.75034647002249</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>20.29762450082175</v>
       </c>
       <c r="K45" t="n">
-        <v>58.50448190323646</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L45" t="n">
         <v>285.7627596518972</v>
@@ -38107,7 +38107,7 @@
         <v>378.678393487941</v>
       </c>
       <c r="N45" t="n">
-        <v>407.3068328282941</v>
+        <v>211.6305083063587</v>
       </c>
       <c r="O45" t="n">
         <v>316.2959939867617</v>
@@ -38116,7 +38116,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
